--- a/gropin/schema/metadataschema158.xlsx
+++ b/gropin/schema/metadataschema158.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Lactobacillus sake in/on Cooked meat model _in modified BHI_ (gropin ID: 158 )</t>
+          <t>Gropin secondary growth model for Lactobacillus sake in/on Cooked meat model _in modified BHI_ (gropin ID: 158 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4.004,11.988011988012,length.out=21)</t>
+          <t>seq(4.004,11.988011988012,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0.961238761238761,0.9892883,length.out=21)</t>
+          <t>seq(0.961238761238761,0.9892883,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,1984.01598401598,length.out=21)</t>
+          <t>seq(0,1984.01598401598,length.out=10)</t>
         </is>
       </c>
     </row>
